--- a/エクセルcsv/事務所別月別ごみ収集量.xlsx
+++ b/エクセルcsv/事務所別月別ごみ収集量.xlsx
@@ -5,20 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masay\OneDrive\デスクトップ\卒業論文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masay\OneDrive\デスクトップ\卒業論文\エクセルcsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA948F88-AFB4-431C-8A63-27BB44388887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381D869E-8B70-4D95-A0F7-A47A6B266776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2470" windowWidth="16520" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="16520" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="累計分析データ">[1]DATA!$C$322:$FN$371</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1346,6 +1362,1568 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="売上実績"/>
+      <sheetName val="自社シェア"/>
+      <sheetName val="実績推移"/>
+      <sheetName val="構成比推移"/>
+      <sheetName val="平均売価推移"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="販売指数"/>
+      <sheetName val="INFO"/>
+      <sheetName val="DATA"/>
+      <sheetName val="来店客数推移"/>
+      <sheetName val="$$SHEETDATA1$$"/>
+      <sheetName val="$$SHEETRANGE$$"/>
+      <sheetName val="$$SHEET$$"/>
+      <sheetName val="$$INFO命令$$"/>
+      <sheetName val="$$DATA命令1$$"/>
+      <sheetName val="$$RANGE命令$$"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="322">
+          <cell r="C322">
+            <v>560150.52289999998</v>
+          </cell>
+          <cell r="D322">
+            <v>110728265.40620001</v>
+          </cell>
+          <cell r="E322">
+            <v>0</v>
+          </cell>
+          <cell r="F322">
+            <v>94753795.258900002</v>
+          </cell>
+          <cell r="G322">
+            <v>659198.19429999997</v>
+          </cell>
+          <cell r="H322">
+            <v>133409281.4975</v>
+          </cell>
+          <cell r="I322">
+            <v>0</v>
+          </cell>
+          <cell r="J322">
+            <v>123307982.3046</v>
+          </cell>
+          <cell r="K322">
+            <v>612252.11979999999</v>
+          </cell>
+          <cell r="L322">
+            <v>123220351.1196</v>
+          </cell>
+          <cell r="M322">
+            <v>0</v>
+          </cell>
+          <cell r="N322">
+            <v>118202132.1162</v>
+          </cell>
+          <cell r="O322">
+            <v>521739.26120000001</v>
+          </cell>
+          <cell r="P322">
+            <v>97053652.871099994</v>
+          </cell>
+          <cell r="Q322">
+            <v>0</v>
+          </cell>
+          <cell r="R322">
+            <v>88434279.540600002</v>
+          </cell>
+          <cell r="S322">
+            <v>764770.50699999998</v>
+          </cell>
+          <cell r="T322">
+            <v>149399649.48500001</v>
+          </cell>
+          <cell r="U322">
+            <v>0</v>
+          </cell>
+          <cell r="V322">
+            <v>134571539.60929999</v>
+          </cell>
+          <cell r="W322">
+            <v>634326.44059999997</v>
+          </cell>
+          <cell r="X322">
+            <v>120219736.1168</v>
+          </cell>
+          <cell r="Y322">
+            <v>0</v>
+          </cell>
+          <cell r="Z322">
+            <v>107111795.6612</v>
+          </cell>
+          <cell r="AA322">
+            <v>565957.07250000001</v>
+          </cell>
+          <cell r="AB322">
+            <v>109450268.617</v>
+          </cell>
+          <cell r="AC322">
+            <v>0</v>
+          </cell>
+          <cell r="AD322">
+            <v>94547259.153600007</v>
+          </cell>
+          <cell r="AE322">
+            <v>561071.93189999997</v>
+          </cell>
+          <cell r="AF322">
+            <v>110951148.9181</v>
+          </cell>
+          <cell r="AG322">
+            <v>0</v>
+          </cell>
+          <cell r="AH322">
+            <v>96087966.768600002</v>
+          </cell>
+          <cell r="AI322">
+            <v>643181.7426</v>
+          </cell>
+          <cell r="AJ322">
+            <v>130210696.3598</v>
+          </cell>
+          <cell r="AK322">
+            <v>0</v>
+          </cell>
+          <cell r="AL322">
+            <v>118789812.8092</v>
+          </cell>
+          <cell r="AM322">
+            <v>718706.69420000003</v>
+          </cell>
+          <cell r="AN322">
+            <v>146260133.7687</v>
+          </cell>
+          <cell r="AO322">
+            <v>0</v>
+          </cell>
+          <cell r="AP322">
+            <v>140828118.9515</v>
+          </cell>
+          <cell r="AQ322">
+            <v>598868.13320000004</v>
+          </cell>
+          <cell r="AR322">
+            <v>115479143.2181</v>
+          </cell>
+          <cell r="AS322">
+            <v>0</v>
+          </cell>
+          <cell r="AT322">
+            <v>98394488.7324</v>
+          </cell>
+          <cell r="AU322">
+            <v>574548.01630000002</v>
+          </cell>
+          <cell r="AV322">
+            <v>111010481.0722</v>
+          </cell>
+          <cell r="AW322">
+            <v>0</v>
+          </cell>
+          <cell r="AX322">
+            <v>98721855.513699993</v>
+          </cell>
+          <cell r="AY322">
+            <v>619580.13040000002</v>
+          </cell>
+          <cell r="AZ322">
+            <v>117334727.4385</v>
+          </cell>
+          <cell r="BA322">
+            <v>0</v>
+          </cell>
+          <cell r="BB322">
+            <v>104071013.4084</v>
+          </cell>
+          <cell r="BC322">
+            <v>500483.641</v>
+          </cell>
+          <cell r="BD322">
+            <v>94523016.923899993</v>
+          </cell>
+          <cell r="BE322">
+            <v>0</v>
+          </cell>
+          <cell r="BF322">
+            <v>84748945.481600001</v>
+          </cell>
+          <cell r="BG322">
+            <v>563392.30599999998</v>
+          </cell>
+          <cell r="BH322">
+            <v>114360485.11310001</v>
+          </cell>
+          <cell r="BI322">
+            <v>0</v>
+          </cell>
+          <cell r="BJ322">
+            <v>100685348.79960001</v>
+          </cell>
+          <cell r="BK322">
+            <v>702091.26769999997</v>
+          </cell>
+          <cell r="BL322">
+            <v>142452935.68700001</v>
+          </cell>
+          <cell r="BM322">
+            <v>0</v>
+          </cell>
+          <cell r="BN322">
+            <v>131922199.3541</v>
+          </cell>
+          <cell r="BO322">
+            <v>690897.17059999995</v>
+          </cell>
+          <cell r="BP322">
+            <v>140378111.04359999</v>
+          </cell>
+          <cell r="BQ322">
+            <v>0</v>
+          </cell>
+          <cell r="BR322">
+            <v>137466433.99869999</v>
+          </cell>
+          <cell r="BS322">
+            <v>557810.56559999997</v>
+          </cell>
+          <cell r="BT322">
+            <v>106417692.34980001</v>
+          </cell>
+          <cell r="BU322">
+            <v>0</v>
+          </cell>
+          <cell r="BV322">
+            <v>90309766.162499994</v>
+          </cell>
+          <cell r="BW322">
+            <v>609307.42660000001</v>
+          </cell>
+          <cell r="BX322">
+            <v>117553576.7947</v>
+          </cell>
+          <cell r="BY322">
+            <v>0</v>
+          </cell>
+          <cell r="BZ322">
+            <v>103785389.3318</v>
+          </cell>
+          <cell r="CA322">
+            <v>601378.95030000003</v>
+          </cell>
+          <cell r="CB322">
+            <v>114293230.27509999</v>
+          </cell>
+          <cell r="CC322">
+            <v>0</v>
+          </cell>
+          <cell r="CD322">
+            <v>100561677.4787</v>
+          </cell>
+          <cell r="CE322">
+            <v>561155.08409999998</v>
+          </cell>
+          <cell r="CF322">
+            <v>109720377.1767</v>
+          </cell>
+          <cell r="CG322">
+            <v>0</v>
+          </cell>
+          <cell r="CH322">
+            <v>98251033.315300003</v>
+          </cell>
+          <cell r="CI322">
+            <v>558655.8996</v>
+          </cell>
+          <cell r="CJ322">
+            <v>112401806.1212</v>
+          </cell>
+          <cell r="CK322">
+            <v>0</v>
+          </cell>
+          <cell r="CL322">
+            <v>96414769.989399999</v>
+          </cell>
+          <cell r="CM322">
+            <v>652360.32949999999</v>
+          </cell>
+          <cell r="CN322">
+            <v>138040124.73609999</v>
+          </cell>
+          <cell r="CO322">
+            <v>0</v>
+          </cell>
+          <cell r="CP322">
+            <v>126468241.4243</v>
+          </cell>
+          <cell r="CQ322">
+            <v>634990.46739999996</v>
+          </cell>
+          <cell r="CR322">
+            <v>134279901.14669999</v>
+          </cell>
+          <cell r="CS322">
+            <v>0</v>
+          </cell>
+          <cell r="CT322">
+            <v>136694370.63850001</v>
+          </cell>
+          <cell r="CU322">
+            <v>694446.61100000003</v>
+          </cell>
+          <cell r="CV322">
+            <v>136199563.99290001</v>
+          </cell>
+          <cell r="CW322">
+            <v>0</v>
+          </cell>
+          <cell r="CX322">
+            <v>121036112.60089999</v>
+          </cell>
+          <cell r="CY322">
+            <v>521189.96029999998</v>
+          </cell>
+          <cell r="CZ322">
+            <v>100972095.14309999</v>
+          </cell>
+          <cell r="DA322">
+            <v>0</v>
+          </cell>
+          <cell r="DB322">
+            <v>90105776.709399998</v>
+          </cell>
+          <cell r="DC322">
+            <v>570577.05189999996</v>
+          </cell>
+          <cell r="DD322">
+            <v>108708985.6936</v>
+          </cell>
+          <cell r="DE322">
+            <v>0</v>
+          </cell>
+          <cell r="DF322">
+            <v>94041069.085800007</v>
+          </cell>
+          <cell r="DG322">
+            <v>592277.58840000001</v>
+          </cell>
+          <cell r="DH322">
+            <v>114913013.39210001</v>
+          </cell>
+          <cell r="DI322">
+            <v>0</v>
+          </cell>
+          <cell r="DJ322">
+            <v>103986150.30419999</v>
+          </cell>
+          <cell r="DK322">
+            <v>460045.00219999999</v>
+          </cell>
+          <cell r="DL322">
+            <v>92776352.611100003</v>
+          </cell>
+          <cell r="DM322">
+            <v>0</v>
+          </cell>
+          <cell r="DN322">
+            <v>81515016.841499999</v>
+          </cell>
+          <cell r="DO322">
+            <v>666035.52969999996</v>
+          </cell>
+          <cell r="DP322">
+            <v>135888502.66850001</v>
+          </cell>
+          <cell r="DQ322">
+            <v>0</v>
+          </cell>
+          <cell r="DR322">
+            <v>127315149.39820001</v>
+          </cell>
+          <cell r="DS322">
+            <v>549340.12309999997</v>
+          </cell>
+          <cell r="DT322">
+            <v>112419513.0027</v>
+          </cell>
+          <cell r="DU322">
+            <v>0</v>
+          </cell>
+          <cell r="DV322">
+            <v>108717967.5297</v>
+          </cell>
+          <cell r="DW322">
+            <v>645633.28090000001</v>
+          </cell>
+          <cell r="DX322">
+            <v>127658333.88500001</v>
+          </cell>
+          <cell r="DY322">
+            <v>0</v>
+          </cell>
+          <cell r="DZ322">
+            <v>110823690.24079999</v>
+          </cell>
+          <cell r="EA322">
+            <v>550039.26060000004</v>
+          </cell>
+          <cell r="EB322">
+            <v>110602956.21600001</v>
+          </cell>
+          <cell r="EC322">
+            <v>0</v>
+          </cell>
+          <cell r="ED322">
+            <v>100039387.5438</v>
+          </cell>
+          <cell r="EE322">
+            <v>557644.03029999998</v>
+          </cell>
+          <cell r="EF322">
+            <v>110977600.9973</v>
+          </cell>
+          <cell r="EG322">
+            <v>0</v>
+          </cell>
+          <cell r="EH322">
+            <v>98956233.646300003</v>
+          </cell>
+          <cell r="EI322">
+            <v>605151.53150000004</v>
+          </cell>
+          <cell r="EJ322">
+            <v>124293210.2871</v>
+          </cell>
+          <cell r="EK322">
+            <v>0</v>
+          </cell>
+          <cell r="EL322">
+            <v>111088871.0381</v>
+          </cell>
+          <cell r="EM322">
+            <v>628074.07250000001</v>
+          </cell>
+          <cell r="EN322">
+            <v>122474592.8803</v>
+          </cell>
+          <cell r="EO322">
+            <v>0</v>
+          </cell>
+          <cell r="EP322">
+            <v>113471222.4791</v>
+          </cell>
+          <cell r="EQ322">
+            <v>591980.77130000002</v>
+          </cell>
+          <cell r="ER322">
+            <v>119986696.1312</v>
+          </cell>
+          <cell r="ES322">
+            <v>0</v>
+          </cell>
+          <cell r="ET322">
+            <v>111718250.02860001</v>
+          </cell>
+          <cell r="EU322">
+            <v>668367.07550000004</v>
+          </cell>
+          <cell r="EV322">
+            <v>136278537.7595</v>
+          </cell>
+          <cell r="EW322">
+            <v>0</v>
+          </cell>
+          <cell r="EX322">
+            <v>128056564.7661</v>
+          </cell>
+          <cell r="EY322">
+            <v>566007.6594</v>
+          </cell>
+          <cell r="EZ322">
+            <v>108167279.5222</v>
+          </cell>
+          <cell r="FA322">
+            <v>0</v>
+          </cell>
+          <cell r="FB322">
+            <v>92590617.930800006</v>
+          </cell>
+          <cell r="FC322">
+            <v>624498.36470000003</v>
+          </cell>
+          <cell r="FD322">
+            <v>119819900.265</v>
+          </cell>
+          <cell r="FE322">
+            <v>0</v>
+          </cell>
+          <cell r="FF322">
+            <v>108342409.44939999</v>
+          </cell>
+          <cell r="FG322">
+            <v>605877.43720000004</v>
+          </cell>
+          <cell r="FH322">
+            <v>113659511.2949</v>
+          </cell>
+          <cell r="FI322">
+            <v>0</v>
+          </cell>
+          <cell r="FJ322">
+            <v>100776195.4994</v>
+          </cell>
+          <cell r="FK322">
+            <v>567203.10660000006</v>
+          </cell>
+          <cell r="FL322">
+            <v>109241593.54960001</v>
+          </cell>
+          <cell r="FM322">
+            <v>0</v>
+          </cell>
+          <cell r="FN322">
+            <v>98926219.806500003</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="C323">
+            <v>146772.81950000001</v>
+          </cell>
+          <cell r="D323">
+            <v>22795978.047899999</v>
+          </cell>
+          <cell r="E323">
+            <v>0</v>
+          </cell>
+          <cell r="F323">
+            <v>15109019.8036</v>
+          </cell>
+          <cell r="G323">
+            <v>166431.3204</v>
+          </cell>
+          <cell r="H323">
+            <v>24619606.728999998</v>
+          </cell>
+          <cell r="I323">
+            <v>0</v>
+          </cell>
+          <cell r="J323">
+            <v>15532328.1468</v>
+          </cell>
+          <cell r="K323">
+            <v>155918.96410000001</v>
+          </cell>
+          <cell r="L323">
+            <v>22349598.032400001</v>
+          </cell>
+          <cell r="M323">
+            <v>0</v>
+          </cell>
+          <cell r="N323">
+            <v>15348068.937899999</v>
+          </cell>
+          <cell r="O323">
+            <v>153959.94399999999</v>
+          </cell>
+          <cell r="P323">
+            <v>20651260.794799998</v>
+          </cell>
+          <cell r="Q323">
+            <v>0</v>
+          </cell>
+          <cell r="R323">
+            <v>14061532.816299999</v>
+          </cell>
+          <cell r="S323">
+            <v>205637.31580000001</v>
+          </cell>
+          <cell r="T323">
+            <v>28107627.057700001</v>
+          </cell>
+          <cell r="U323">
+            <v>0</v>
+          </cell>
+          <cell r="V323">
+            <v>20126501.3609</v>
+          </cell>
+          <cell r="W323">
+            <v>187961.4357</v>
+          </cell>
+          <cell r="X323">
+            <v>24803299.295400001</v>
+          </cell>
+          <cell r="Y323">
+            <v>0</v>
+          </cell>
+          <cell r="Z323">
+            <v>18078266.358800001</v>
+          </cell>
+          <cell r="AA323">
+            <v>156593.41579999999</v>
+          </cell>
+          <cell r="AB323">
+            <v>22053666.936099999</v>
+          </cell>
+          <cell r="AC323">
+            <v>0</v>
+          </cell>
+          <cell r="AD323">
+            <v>13456143.3815</v>
+          </cell>
+          <cell r="AE323">
+            <v>149604.19620000001</v>
+          </cell>
+          <cell r="AF323">
+            <v>21915466.315099999</v>
+          </cell>
+          <cell r="AG323">
+            <v>0</v>
+          </cell>
+          <cell r="AH323">
+            <v>13461197.3157</v>
+          </cell>
+          <cell r="AI323">
+            <v>164730.0172</v>
+          </cell>
+          <cell r="AJ323">
+            <v>24525802.888</v>
+          </cell>
+          <cell r="AK323">
+            <v>0</v>
+          </cell>
+          <cell r="AL323">
+            <v>14384160.7095</v>
+          </cell>
+          <cell r="AM323">
+            <v>176202.06330000001</v>
+          </cell>
+          <cell r="AN323">
+            <v>25968418.389699999</v>
+          </cell>
+          <cell r="AO323">
+            <v>0</v>
+          </cell>
+          <cell r="AP323">
+            <v>17031403.324200001</v>
+          </cell>
+          <cell r="AQ323">
+            <v>172039.27549999999</v>
+          </cell>
+          <cell r="AR323">
+            <v>24093105.559900001</v>
+          </cell>
+          <cell r="AS323">
+            <v>0</v>
+          </cell>
+          <cell r="AT323">
+            <v>17042922.773800001</v>
+          </cell>
+          <cell r="AU323">
+            <v>152693.76019999999</v>
+          </cell>
+          <cell r="AV323">
+            <v>21786181.953000002</v>
+          </cell>
+          <cell r="AW323">
+            <v>0</v>
+          </cell>
+          <cell r="AX323">
+            <v>14173350.0469</v>
+          </cell>
+          <cell r="AY323">
+            <v>178727.9584</v>
+          </cell>
+          <cell r="AZ323">
+            <v>24614179.441199999</v>
+          </cell>
+          <cell r="BA323">
+            <v>0</v>
+          </cell>
+          <cell r="BB323">
+            <v>18296032.962099999</v>
+          </cell>
+          <cell r="BC323">
+            <v>142411.35560000001</v>
+          </cell>
+          <cell r="BD323">
+            <v>19597721.725200001</v>
+          </cell>
+          <cell r="BE323">
+            <v>0</v>
+          </cell>
+          <cell r="BF323">
+            <v>12110705.575200001</v>
+          </cell>
+          <cell r="BG323">
+            <v>137775.3578</v>
+          </cell>
+          <cell r="BH323">
+            <v>20101784.6008</v>
+          </cell>
+          <cell r="BI323">
+            <v>0</v>
+          </cell>
+          <cell r="BJ323">
+            <v>13232937.048800001</v>
+          </cell>
+          <cell r="BK323">
+            <v>178027.63639999999</v>
+          </cell>
+          <cell r="BL323">
+            <v>26571122.332899999</v>
+          </cell>
+          <cell r="BM323">
+            <v>0</v>
+          </cell>
+          <cell r="BN323">
+            <v>16897479.464699998</v>
+          </cell>
+          <cell r="BO323">
+            <v>207022.69940000001</v>
+          </cell>
+          <cell r="BP323">
+            <v>31546431.098000001</v>
+          </cell>
+          <cell r="BQ323">
+            <v>0</v>
+          </cell>
+          <cell r="BR323">
+            <v>20193689.214699998</v>
+          </cell>
+          <cell r="BS323">
+            <v>241317.0624</v>
+          </cell>
+          <cell r="BT323">
+            <v>33479247.344799999</v>
+          </cell>
+          <cell r="BU323">
+            <v>0</v>
+          </cell>
+          <cell r="BV323">
+            <v>22132115.110199999</v>
+          </cell>
+          <cell r="BW323">
+            <v>231269.38560000001</v>
+          </cell>
+          <cell r="BX323">
+            <v>32883354.2119</v>
+          </cell>
+          <cell r="BY323">
+            <v>0</v>
+          </cell>
+          <cell r="BZ323">
+            <v>20768726.983199999</v>
+          </cell>
+          <cell r="CA323">
+            <v>210680.065</v>
+          </cell>
+          <cell r="CB323">
+            <v>30401358.8145</v>
+          </cell>
+          <cell r="CC323">
+            <v>0</v>
+          </cell>
+          <cell r="CD323">
+            <v>17752974.5407</v>
+          </cell>
+          <cell r="CE323">
+            <v>226001.5955</v>
+          </cell>
+          <cell r="CF323">
+            <v>31822737.396299999</v>
+          </cell>
+          <cell r="CG323">
+            <v>0</v>
+          </cell>
+          <cell r="CH323">
+            <v>17381225.0042</v>
+          </cell>
+          <cell r="CI323">
+            <v>201758.41329999999</v>
+          </cell>
+          <cell r="CJ323">
+            <v>30655133.6928</v>
+          </cell>
+          <cell r="CK323">
+            <v>0</v>
+          </cell>
+          <cell r="CL323">
+            <v>17382269.5704</v>
+          </cell>
+          <cell r="CM323">
+            <v>221017.0533</v>
+          </cell>
+          <cell r="CN323">
+            <v>33255986.225699998</v>
+          </cell>
+          <cell r="CO323">
+            <v>0</v>
+          </cell>
+          <cell r="CP323">
+            <v>20965788.478399999</v>
+          </cell>
+          <cell r="CQ323">
+            <v>202724.17</v>
+          </cell>
+          <cell r="CR323">
+            <v>30062640.322799999</v>
+          </cell>
+          <cell r="CS323">
+            <v>0</v>
+          </cell>
+          <cell r="CT323">
+            <v>18132757.735100001</v>
+          </cell>
+          <cell r="CU323">
+            <v>283344.14039999997</v>
+          </cell>
+          <cell r="CV323">
+            <v>40609971.2733</v>
+          </cell>
+          <cell r="CW323">
+            <v>0</v>
+          </cell>
+          <cell r="CX323">
+            <v>24625870.870700002</v>
+          </cell>
+          <cell r="CY323">
+            <v>184770.6035</v>
+          </cell>
+          <cell r="CZ323">
+            <v>26147204.524999999</v>
+          </cell>
+          <cell r="DA323">
+            <v>0</v>
+          </cell>
+          <cell r="DB323">
+            <v>17027722.519200001</v>
+          </cell>
+          <cell r="DC323">
+            <v>200415.11360000001</v>
+          </cell>
+          <cell r="DD323">
+            <v>29054125.626499999</v>
+          </cell>
+          <cell r="DE323">
+            <v>0</v>
+          </cell>
+          <cell r="DF323">
+            <v>16585136.353800001</v>
+          </cell>
+          <cell r="DG323">
+            <v>238050.30609999999</v>
+          </cell>
+          <cell r="DH323">
+            <v>33289045.566500001</v>
+          </cell>
+          <cell r="DI323">
+            <v>0</v>
+          </cell>
+          <cell r="DJ323">
+            <v>18987625.243900001</v>
+          </cell>
+          <cell r="DK323">
+            <v>134.95519999999999</v>
+          </cell>
+          <cell r="DL323">
+            <v>42296.960099999997</v>
+          </cell>
+          <cell r="DM323">
+            <v>0</v>
+          </cell>
+          <cell r="DN323">
+            <v>20963.244999999999</v>
+          </cell>
+          <cell r="DO323">
+            <v>168.9888</v>
+          </cell>
+          <cell r="DP323">
+            <v>55973.805099999998</v>
+          </cell>
+          <cell r="DQ323">
+            <v>0</v>
+          </cell>
+          <cell r="DR323">
+            <v>30632.657999999999</v>
+          </cell>
+          <cell r="DS323">
+            <v>150.9034</v>
+          </cell>
+          <cell r="DT323">
+            <v>47705.898300000001</v>
+          </cell>
+          <cell r="DU323">
+            <v>0</v>
+          </cell>
+          <cell r="DV323">
+            <v>31576.294999999998</v>
+          </cell>
+          <cell r="DW323">
+            <v>123.00230000000001</v>
+          </cell>
+          <cell r="DX323">
+            <v>36816.219899999996</v>
+          </cell>
+          <cell r="DY323">
+            <v>0</v>
+          </cell>
+          <cell r="DZ323">
+            <v>23751.9</v>
+          </cell>
+          <cell r="EA323">
+            <v>164.52430000000001</v>
+          </cell>
+          <cell r="EB323">
+            <v>58766.172599999998</v>
+          </cell>
+          <cell r="EC323">
+            <v>0</v>
+          </cell>
+          <cell r="ED323">
+            <v>23402.757000000001</v>
+          </cell>
+          <cell r="EE323">
+            <v>155.97020000000001</v>
+          </cell>
+          <cell r="EF323">
+            <v>59174.329599999997</v>
+          </cell>
+          <cell r="EG323">
+            <v>0</v>
+          </cell>
+          <cell r="EH323">
+            <v>21537.0484</v>
+          </cell>
+          <cell r="EI323">
+            <v>134.0729</v>
+          </cell>
+          <cell r="EJ323">
+            <v>45717.571799999998</v>
+          </cell>
+          <cell r="EK323">
+            <v>0</v>
+          </cell>
+          <cell r="EL323">
+            <v>16747.462800000001</v>
+          </cell>
+          <cell r="EM323">
+            <v>368.68779999999998</v>
+          </cell>
+          <cell r="EN323">
+            <v>64633.786599999999</v>
+          </cell>
+          <cell r="EO323">
+            <v>0</v>
+          </cell>
+          <cell r="EP323">
+            <v>91131.018800000005</v>
+          </cell>
+          <cell r="EQ323">
+            <v>198.75649999999999</v>
+          </cell>
+          <cell r="ER323">
+            <v>63226.161399999997</v>
+          </cell>
+          <cell r="ES323">
+            <v>0</v>
+          </cell>
+          <cell r="ET323">
+            <v>24094.4686</v>
+          </cell>
+          <cell r="EU323">
+            <v>205.49879999999999</v>
+          </cell>
+          <cell r="EV323">
+            <v>66412.130099999995</v>
+          </cell>
+          <cell r="EW323">
+            <v>0</v>
+          </cell>
+          <cell r="EX323">
+            <v>23702.266800000001</v>
+          </cell>
+          <cell r="EY323">
+            <v>292.56990000000002</v>
+          </cell>
+          <cell r="EZ323">
+            <v>79871.689199999993</v>
+          </cell>
+          <cell r="FA323">
+            <v>0</v>
+          </cell>
+          <cell r="FB323">
+            <v>48955.1086</v>
+          </cell>
+          <cell r="FC323">
+            <v>242.81720000000001</v>
+          </cell>
+          <cell r="FD323">
+            <v>83278.917199999996</v>
+          </cell>
+          <cell r="FE323">
+            <v>0</v>
+          </cell>
+          <cell r="FF323">
+            <v>12270.695400000001</v>
+          </cell>
+          <cell r="FG323">
+            <v>183.6439</v>
+          </cell>
+          <cell r="FH323">
+            <v>60286.6152</v>
+          </cell>
+          <cell r="FI323">
+            <v>0</v>
+          </cell>
+          <cell r="FJ323">
+            <v>23386.086599999999</v>
+          </cell>
+          <cell r="FK323">
+            <v>360.32729999999998</v>
+          </cell>
+          <cell r="FL323">
+            <v>85167.885200000004</v>
+          </cell>
+          <cell r="FM323">
+            <v>0</v>
+          </cell>
+          <cell r="FN323">
+            <v>62847.164599999996</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="C324">
+            <v>251855.64129999999</v>
+          </cell>
+          <cell r="D324">
+            <v>36848117.867399998</v>
+          </cell>
+          <cell r="E324">
+            <v>0</v>
+          </cell>
+          <cell r="F324">
+            <v>26478396.996199999</v>
+          </cell>
+          <cell r="G324">
+            <v>282897.71659999999</v>
+          </cell>
+          <cell r="H324">
+            <v>42593998.295100003</v>
+          </cell>
+          <cell r="I324">
+            <v>0</v>
+          </cell>
+          <cell r="J324">
+            <v>32473787.820599999</v>
+          </cell>
+          <cell r="K324">
+            <v>242248.69380000001</v>
+          </cell>
+          <cell r="L324">
+            <v>36343451.424699999</v>
+          </cell>
+          <cell r="M324">
+            <v>0</v>
+          </cell>
+          <cell r="N324">
+            <v>28854773.050299998</v>
+          </cell>
+          <cell r="O324">
+            <v>198486.1403</v>
+          </cell>
+          <cell r="P324">
+            <v>29004044.104899999</v>
+          </cell>
+          <cell r="Q324">
+            <v>0</v>
+          </cell>
+          <cell r="R324">
+            <v>22185520.247699998</v>
+          </cell>
+          <cell r="S324">
+            <v>299281.80699999997</v>
+          </cell>
+          <cell r="T324">
+            <v>45145224.591399997</v>
+          </cell>
+          <cell r="U324">
+            <v>0</v>
+          </cell>
+          <cell r="V324">
+            <v>33519840.412300002</v>
+          </cell>
+          <cell r="W324">
+            <v>270590.826</v>
+          </cell>
+          <cell r="X324">
+            <v>38700887.332199998</v>
+          </cell>
+          <cell r="Y324">
+            <v>0</v>
+          </cell>
+          <cell r="Z324">
+            <v>28798185.288899999</v>
+          </cell>
+          <cell r="AA324">
+            <v>232312.18100000001</v>
+          </cell>
+          <cell r="AB324">
+            <v>34994704.090400003</v>
+          </cell>
+          <cell r="AC324">
+            <v>0</v>
+          </cell>
+          <cell r="AD324">
+            <v>25953087.852400001</v>
+          </cell>
+          <cell r="AE324">
+            <v>240438.64670000001</v>
+          </cell>
+          <cell r="AF324">
+            <v>36719856.2874</v>
+          </cell>
+          <cell r="AG324">
+            <v>0</v>
+          </cell>
+          <cell r="AH324">
+            <v>26549594.2744</v>
+          </cell>
+          <cell r="AI324">
+            <v>286576.03649999999</v>
+          </cell>
+          <cell r="AJ324">
+            <v>43854516.211400002</v>
+          </cell>
+          <cell r="AK324">
+            <v>0</v>
+          </cell>
+          <cell r="AL324">
+            <v>32913659.157000002</v>
+          </cell>
+          <cell r="AM324">
+            <v>287439.64230000001</v>
+          </cell>
+          <cell r="AN324">
+            <v>43587930.247000001</v>
+          </cell>
+          <cell r="AO324">
+            <v>0</v>
+          </cell>
+          <cell r="AP324">
+            <v>35601125.5075</v>
+          </cell>
+          <cell r="AQ324">
+            <v>236023.4032</v>
+          </cell>
+          <cell r="AR324">
+            <v>35065048.6514</v>
+          </cell>
+          <cell r="AS324">
+            <v>0</v>
+          </cell>
+          <cell r="AT324">
+            <v>26563507.235399999</v>
+          </cell>
+          <cell r="AU324">
+            <v>240515.12779999999</v>
+          </cell>
+          <cell r="AV324">
+            <v>35497268.341799997</v>
+          </cell>
+          <cell r="AW324">
+            <v>0</v>
+          </cell>
+          <cell r="AX324">
+            <v>27354686.2304</v>
+          </cell>
+          <cell r="AY324">
+            <v>263547.25599999999</v>
+          </cell>
+          <cell r="AZ324">
+            <v>38146229.868199997</v>
+          </cell>
+          <cell r="BA324">
+            <v>0</v>
+          </cell>
+          <cell r="BB324">
+            <v>31249114.4921</v>
+          </cell>
+          <cell r="BC324">
+            <v>195156.25510000001</v>
+          </cell>
+          <cell r="BD324">
+            <v>29015847.726399999</v>
+          </cell>
+          <cell r="BE324">
+            <v>0</v>
+          </cell>
+          <cell r="BF324">
+            <v>21993906.877500001</v>
+          </cell>
+          <cell r="BG324">
+            <v>240700.45869999999</v>
+          </cell>
+          <cell r="BH324">
+            <v>36344473.189999998</v>
+          </cell>
+          <cell r="BI324">
+            <v>0</v>
+          </cell>
+          <cell r="BJ324">
+            <v>24885306.214699998</v>
+          </cell>
+          <cell r="BK324">
+            <v>302271.43300000002</v>
+          </cell>
+          <cell r="BL324">
+            <v>45821321.367399998</v>
+          </cell>
+          <cell r="BM324">
+            <v>0</v>
+          </cell>
+          <cell r="BN324">
+            <v>36028744.457599998</v>
+          </cell>
+          <cell r="BO324">
+            <v>282867.7549</v>
+          </cell>
+          <cell r="BP324">
+            <v>42799008.810999997</v>
+          </cell>
+          <cell r="BQ324">
+            <v>0</v>
+          </cell>
+          <cell r="BR324">
+            <v>34323559.0101</v>
+          </cell>
+          <cell r="BS324">
+            <v>218710.09229999999</v>
+          </cell>
+          <cell r="BT324">
+            <v>32621477.5953</v>
+          </cell>
+          <cell r="BU324">
+            <v>0</v>
+          </cell>
+          <cell r="BV324">
+            <v>24750505.922499999</v>
+          </cell>
+          <cell r="BW324">
+            <v>258111.1465</v>
+          </cell>
+          <cell r="BX324">
+            <v>38165965.291500002</v>
+          </cell>
+          <cell r="BY324">
+            <v>0</v>
+          </cell>
+          <cell r="BZ324">
+            <v>27757769.565499999</v>
+          </cell>
+          <cell r="CA324">
+            <v>252693.7108</v>
+          </cell>
+          <cell r="CB324">
+            <v>36574391.439499997</v>
+          </cell>
+          <cell r="CC324">
+            <v>0</v>
+          </cell>
+          <cell r="CD324">
+            <v>25859680.213500001</v>
+          </cell>
+          <cell r="CE324">
+            <v>240533.21720000001</v>
+          </cell>
+          <cell r="CF324">
+            <v>36475558.109800003</v>
+          </cell>
+          <cell r="CG324">
+            <v>0</v>
+          </cell>
+          <cell r="CH324">
+            <v>26600973.913400002</v>
+          </cell>
+          <cell r="CI324">
+            <v>253103.08319999999</v>
+          </cell>
+          <cell r="CJ324">
+            <v>38475806.974200003</v>
+          </cell>
+          <cell r="CK324">
+            <v>0</v>
+          </cell>
+          <cell r="CL324">
+            <v>28169737.0909</v>
+          </cell>
+          <cell r="CM324">
+            <v>295696.53370000003</v>
+          </cell>
+          <cell r="CN324">
+            <v>45702337.277099997</v>
+          </cell>
+          <cell r="CO324">
+            <v>0</v>
+          </cell>
+          <cell r="CP324">
+            <v>35486922.7016</v>
+          </cell>
+          <cell r="CQ324">
+            <v>250531.27439999999</v>
+          </cell>
+          <cell r="CR324">
+            <v>38630803.563100003</v>
+          </cell>
+          <cell r="CS324">
+            <v>0</v>
+          </cell>
+          <cell r="CT324">
+            <v>29865307.403099999</v>
+          </cell>
+          <cell r="CU324">
+            <v>275979.45679999999</v>
+          </cell>
+          <cell r="CV324">
+            <v>42303431.0691</v>
+          </cell>
+          <cell r="CW324">
+            <v>0</v>
+          </cell>
+          <cell r="CX324">
+            <v>32956440.290899999</v>
+          </cell>
+          <cell r="CY324">
+            <v>222181.8682</v>
+          </cell>
+          <cell r="CZ324">
+            <v>33320894.417800002</v>
+          </cell>
+          <cell r="DA324">
+            <v>0</v>
+          </cell>
+          <cell r="DB324">
+            <v>24560767.734000001</v>
+          </cell>
+          <cell r="DC324">
+            <v>257096.58900000001</v>
+          </cell>
+          <cell r="DD324">
+            <v>37635476.805600002</v>
+          </cell>
+          <cell r="DE324">
+            <v>0</v>
+          </cell>
+          <cell r="DF324">
+            <v>29944274.969700001</v>
+          </cell>
+          <cell r="DG324">
+            <v>258167.56349999999</v>
+          </cell>
+          <cell r="DH324">
+            <v>39691772.163400002</v>
+          </cell>
+          <cell r="DI324">
+            <v>0</v>
+          </cell>
+          <cell r="DJ324">
+            <v>29435124.6107</v>
+          </cell>
+          <cell r="DK324">
+            <v>204906.8383</v>
+          </cell>
+          <cell r="DL324">
+            <v>31792524.3948</v>
+          </cell>
+          <cell r="DM324">
+            <v>0</v>
+          </cell>
+          <cell r="DN324">
+            <v>21718573.432500001</v>
+          </cell>
+          <cell r="DO324">
+            <v>291702.14990000002</v>
+          </cell>
+          <cell r="DP324">
+            <v>45439184.623199999</v>
+          </cell>
+          <cell r="DQ324">
+            <v>0</v>
+          </cell>
+          <cell r="DR324">
+            <v>32692349.319400001</v>
+          </cell>
+          <cell r="DS324">
+            <v>225352.07430000001</v>
+          </cell>
+          <cell r="DT324">
+            <v>34918817.581299998</v>
+          </cell>
+          <cell r="DU324">
+            <v>0</v>
+          </cell>
+          <cell r="DV324">
+            <v>25818178.088399999</v>
+          </cell>
+          <cell r="DW324">
+            <v>265464.95559999999</v>
+          </cell>
+          <cell r="DX324">
+            <v>41829956.664099999</v>
+          </cell>
+          <cell r="DY324">
+            <v>0</v>
+          </cell>
+          <cell r="DZ324">
+            <v>30366283.901900001</v>
+          </cell>
+          <cell r="EA324">
+            <v>244093.2432</v>
+          </cell>
+          <cell r="EB324">
+            <v>38012775.056599997</v>
+          </cell>
+          <cell r="EC324">
+            <v>0</v>
+          </cell>
+          <cell r="ED324">
+            <v>26671002.380899999</v>
+          </cell>
+          <cell r="EE324">
+            <v>260098.30480000001</v>
+          </cell>
+          <cell r="EF324">
+            <v>39451165.853600003</v>
+          </cell>
+          <cell r="EG324">
+            <v>0</v>
+          </cell>
+          <cell r="EH324">
+            <v>27555328.707600001</v>
+          </cell>
+          <cell r="EI324">
+            <v>275834.02970000001</v>
+          </cell>
+          <cell r="EJ324">
+            <v>44017340.317199998</v>
+          </cell>
+          <cell r="EK324">
+            <v>0</v>
+          </cell>
+          <cell r="EL324">
+            <v>30986123.1215</v>
+          </cell>
+          <cell r="EM324">
+            <v>275072.42080000002</v>
+          </cell>
+          <cell r="EN324">
+            <v>40733680.782899998</v>
+          </cell>
+          <cell r="EO324">
+            <v>0</v>
+          </cell>
+          <cell r="EP324">
+            <v>30701153.358199999</v>
+          </cell>
+          <cell r="EQ324">
+            <v>256296.66740000001</v>
+          </cell>
+          <cell r="ER324">
+            <v>39806441.6994</v>
+          </cell>
+          <cell r="ES324">
+            <v>0</v>
+          </cell>
+          <cell r="ET324">
+            <v>29524875.942400001</v>
+          </cell>
+          <cell r="EU324">
+            <v>280738.9339</v>
+          </cell>
+          <cell r="EV324">
+            <v>43389554.154299997</v>
+          </cell>
+          <cell r="EW324">
+            <v>0</v>
+          </cell>
+          <cell r="EX324">
+            <v>32614339.335099999</v>
+          </cell>
+          <cell r="EY324">
+            <v>207546.617</v>
+          </cell>
+          <cell r="EZ324">
+            <v>31067380.839699998</v>
+          </cell>
+          <cell r="FA324">
+            <v>0</v>
+          </cell>
+          <cell r="FB324">
+            <v>22783575.644499999</v>
+          </cell>
+          <cell r="FC324">
+            <v>246150.70540000001</v>
+          </cell>
+          <cell r="FD324">
+            <v>36518265.321599998</v>
+          </cell>
+          <cell r="FE324">
+            <v>0</v>
+          </cell>
+          <cell r="FF324">
+            <v>27940078.525699999</v>
+          </cell>
+          <cell r="FG324">
+            <v>261785.63870000001</v>
+          </cell>
+          <cell r="FH324">
+            <v>36827910.203400001</v>
+          </cell>
+          <cell r="FI324">
+            <v>0</v>
+          </cell>
+          <cell r="FJ324">
+            <v>30061348.874600001</v>
+          </cell>
+          <cell r="FK324">
+            <v>232816.14859999999</v>
+          </cell>
+          <cell r="FL324">
+            <v>34337479.663000003</v>
+          </cell>
+          <cell r="FM324">
+            <v>0</v>
+          </cell>
+          <cell r="FN324">
+            <v>26684726.293099999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1611,7 +3189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -2679,4 +4257,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229EDBCD-241F-41CD-9A21-EC024149602E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>